--- a/docs/VF-ARBillStatus.xlsx
+++ b/docs/VF-ARBillStatus.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-ARBillStatus.xlsx
+++ b/docs/VF-ARBillStatus.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-ARBillStatus.xlsx
+++ b/docs/VF-ARBillStatus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -163,6 +163,48 @@
   </si>
   <si>
     <t>OPEN</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>OLD BILL</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>PENDING APPROVAL</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>REFUND REVIEW</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>REFUNDED</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>RETURNED FROM AR (NEW)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>SUSPENDED</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>WRITE-OFF</t>
   </si>
 </sst>
 </file>
@@ -437,7 +479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -613,6 +655,125 @@
         <v>36</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/VF-ARBillStatus.xlsx
+++ b/docs/VF-ARBillStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-ARBillStatus.xlsx
+++ b/docs/VF-ARBillStatus.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-ARBillStatus.xlsx
+++ b/docs/VF-ARBillStatus.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-ARBillStatus.xlsx
+++ b/docs/VF-ARBillStatus.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-ARBillStatus.xlsx
+++ b/docs/VF-ARBillStatus.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
